--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -512,7 +512,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1110,12 +1110,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E014</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1478,12 +1478,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1662,12 +1662,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2030,12 +2030,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2352,12 +2352,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2444,12 +2444,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2582,7 +2582,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2720,12 +2720,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2950,12 +2950,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3134,7 +3134,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3180,7 +3180,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3410,7 +3410,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3640,12 +3640,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3732,12 +3732,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E013</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3778,12 +3778,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4146,12 +4146,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4192,7 +4192,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4238,12 +4238,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4284,12 +4284,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E013</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4376,7 +4376,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4422,12 +4422,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4698,12 +4698,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E014</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4974,12 +4974,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E013</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -5020,7 +5020,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5066,12 +5066,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E013</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -5112,7 +5112,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5158,12 +5158,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E014</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5296,7 +5296,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5342,12 +5342,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E014</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -5434,12 +5434,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -5480,12 +5480,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -5526,12 +5526,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E013</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -5572,12 +5572,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -5664,7 +5664,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -5710,7 +5710,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -5756,7 +5756,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -5802,7 +5802,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -5894,7 +5894,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -5940,12 +5940,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5986,7 +5986,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6032,12 +6032,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E013</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -6124,12 +6124,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E013</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -6170,12 +6170,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -6308,12 +6308,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>E008</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -6354,12 +6354,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>E009</t>
+          <t>E014</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -6400,7 +6400,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>E008</t>
+          <t>E007</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6446,12 +6446,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>E009</t>
+          <t>E013</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -6492,12 +6492,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>E009</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -6584,7 +6584,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>E008</t>
+          <t>E009</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -6630,7 +6630,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>E007</t>
+          <t>E008</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>E007</t>
+          <t>E009</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -6860,7 +6860,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>E008</t>
+          <t>E007</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -6906,7 +6906,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>E007</t>
+          <t>E009</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7044,12 +7044,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>E008</t>
+          <t>E013</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -7090,7 +7090,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>E007</t>
+          <t>E009</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>E009</t>
+          <t>E008</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7274,7 +7274,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>E009</t>
+          <t>E007</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>E007</t>
+          <t>E008</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -7366,7 +7366,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>E008</t>
+          <t>E007</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E013</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -7504,7 +7504,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>E009</t>
+          <t>E008</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -7550,7 +7550,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>E008</t>
+          <t>E007</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -7596,12 +7596,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E008</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -7642,7 +7642,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>E007</t>
+          <t>E009</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -7734,7 +7734,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>E007</t>
+          <t>E009</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -7780,7 +7780,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>E009</t>
+          <t>E007</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>E007</t>
+          <t>E008</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -7872,7 +7872,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>E009</t>
+          <t>E007</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -7918,12 +7918,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>E009</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>E008</t>
+          <t>E007</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8194,7 +8194,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>E009</t>
+          <t>E007</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>E007</t>
+          <t>E009</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>E009</t>
+          <t>E007</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -8378,12 +8378,12 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>E007</t>
+          <t>E014</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -8470,7 +8470,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>E009</t>
+          <t>E007</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -8562,12 +8562,12 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>E007</t>
+          <t>E014</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -8608,7 +8608,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>E008</t>
+          <t>E009</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -8700,7 +8700,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>E014</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -8792,12 +8792,12 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>E008</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -8884,12 +8884,12 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E009</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -9206,12 +9206,12 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>E010</t>
+          <t>E013</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>E012</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -9298,7 +9298,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>E010</t>
+          <t>E011</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -9344,12 +9344,12 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>E011</t>
+          <t>E014</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -9390,7 +9390,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>E010</t>
+          <t>E012</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -9574,12 +9574,12 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -9620,7 +9620,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>E012</t>
+          <t>E011</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -9850,7 +9850,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>E011</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -9942,12 +9942,12 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -9988,7 +9988,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>E012</t>
+          <t>E011</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -10034,12 +10034,12 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>E011</t>
+          <t>E014</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -10080,7 +10080,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>E010</t>
+          <t>E012</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -10126,7 +10126,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>E012</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10172,7 +10172,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>E014</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10218,12 +10218,12 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>E010</t>
+          <t>E013</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -10264,12 +10264,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>E011</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -10310,12 +10310,12 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>E011</t>
+          <t>E014</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -10402,7 +10402,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>E012</t>
+          <t>E011</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -10448,7 +10448,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>E011</t>
+          <t>E012</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -10494,7 +10494,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>E012</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>E010</t>
+          <t>E012</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -10586,12 +10586,12 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>E011</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>E011</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -10678,12 +10678,12 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>E010</t>
+          <t>E014</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -10724,7 +10724,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>E012</t>
+          <t>E011</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -10770,7 +10770,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>E011</t>
+          <t>E012</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -10816,12 +10816,12 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -10862,7 +10862,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>E010</t>
+          <t>E011</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -11000,7 +11000,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>E010</t>
+          <t>E012</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -11138,7 +11138,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>E011</t>
+          <t>E012</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -11184,7 +11184,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>E012</t>
+          <t>E011</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -11230,7 +11230,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>E011</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -11322,7 +11322,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>E011</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -11368,12 +11368,12 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>E010</t>
+          <t>E013</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -11414,12 +11414,12 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -11460,12 +11460,12 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>E010</t>
+          <t>E013</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -11598,12 +11598,12 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>E011</t>
+          <t>E013</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -11644,7 +11644,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>E010</t>
+          <t>E012</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -11690,7 +11690,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>E012</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -11736,12 +11736,12 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>E011</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -11782,7 +11782,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>E011</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -11828,7 +11828,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>E010</t>
+          <t>E011</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -11874,12 +11874,12 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>E012</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -12011,7 +12011,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -12026,7 +12026,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Varios</t>
+          <t>Cliente X</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -12036,10 +12036,10 @@
         <v>6470.45</v>
       </c>
       <c r="G2" t="n">
-        <v>240</v>
+        <v>312</v>
       </c>
       <c r="H2" t="n">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
         <v>12</v>
@@ -12051,31 +12051,31 @@
         <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="M2" t="n">
         <v>60</v>
       </c>
       <c r="N2" t="n">
-        <v>244583.18</v>
+        <v>135879.55</v>
       </c>
       <c r="O2" t="n">
         <v>310581.82</v>
       </c>
       <c r="P2" t="n">
-        <v>372051.14</v>
+        <v>954392.05</v>
       </c>
       <c r="Q2" t="n">
         <v>1423500</v>
       </c>
       <c r="R2" t="n">
-        <v>2350716.14</v>
+        <v>2824353.41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E013</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -12100,46 +12100,46 @@
         <v>6470.45</v>
       </c>
       <c r="G3" t="n">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="H3" t="n">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="I3" t="n">
         <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="M3" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>326110.91</v>
+        <v>244583.18</v>
       </c>
       <c r="O3" t="n">
-        <v>62116.36</v>
+        <v>310581.82</v>
       </c>
       <c r="P3" t="n">
-        <v>469107.95</v>
+        <v>80880.67999999999</v>
       </c>
       <c r="Q3" t="n">
         <v>1423500</v>
       </c>
       <c r="R3" t="n">
-        <v>2280835.23</v>
+        <v>2059545.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>E011</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -12154,7 +12154,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cliente A</t>
+          <t>Cliente X</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -12164,13 +12164,13 @@
         <v>6470.45</v>
       </c>
       <c r="G4" t="n">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="H4" t="n">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
         <v>24</v>
@@ -12179,31 +12179,31 @@
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N4" t="n">
-        <v>380462.73</v>
+        <v>353286.82</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>62116.36</v>
       </c>
       <c r="P4" t="n">
-        <v>177937.5</v>
+        <v>80880.67999999999</v>
       </c>
       <c r="Q4" t="n">
         <v>1423500</v>
       </c>
       <c r="R4" t="n">
-        <v>1981900.23</v>
+        <v>1919783.86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E014</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -12218,7 +12218,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cliente X</t>
+          <t>Varios</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -12228,10 +12228,10 @@
         <v>6470.45</v>
       </c>
       <c r="G5" t="n">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="H5" t="n">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="I5" t="n">
         <v>12</v>
@@ -12243,31 +12243,31 @@
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="M5" t="n">
         <v>12</v>
       </c>
       <c r="N5" t="n">
-        <v>217407.27</v>
+        <v>353286.82</v>
       </c>
       <c r="O5" t="n">
         <v>62116.36</v>
       </c>
       <c r="P5" t="n">
-        <v>274994.32</v>
+        <v>80880.67999999999</v>
       </c>
       <c r="Q5" t="n">
         <v>1423500</v>
       </c>
       <c r="R5" t="n">
-        <v>1978017.95</v>
+        <v>1919783.86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>E007</t>
+          <t>E009</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -12292,13 +12292,13 @@
         <v>6470.45</v>
       </c>
       <c r="G6" t="n">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="H6" t="n">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>24</v>
@@ -12307,31 +12307,31 @@
         <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>353286.82</v>
+        <v>271759.09</v>
       </c>
       <c r="O6" t="n">
-        <v>62116.36</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>80880.67999999999</v>
+        <v>177937.5</v>
       </c>
       <c r="Q6" t="n">
         <v>1423500</v>
       </c>
       <c r="R6" t="n">
-        <v>1919783.86</v>
+        <v>1873196.59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -12346,7 +12346,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cliente X</t>
+          <t>Cliente Y</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -12359,28 +12359,28 @@
         <v>204</v>
       </c>
       <c r="H7" t="n">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J7" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
         <v>10</v>
       </c>
       <c r="M7" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="N7" t="n">
-        <v>163055.45</v>
+        <v>298935</v>
       </c>
       <c r="O7" t="n">
-        <v>248465.45</v>
+        <v>62116.36</v>
       </c>
       <c r="P7" t="n">
         <v>80880.67999999999</v>
@@ -12389,13 +12389,13 @@
         <v>1423500</v>
       </c>
       <c r="R7" t="n">
-        <v>1915901.59</v>
+        <v>1865432.05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -12423,7 +12423,7 @@
         <v>204</v>
       </c>
       <c r="H8" t="n">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="I8" t="n">
         <v>12</v>
@@ -12441,7 +12441,7 @@
         <v>12</v>
       </c>
       <c r="N8" t="n">
-        <v>271759.09</v>
+        <v>244583.18</v>
       </c>
       <c r="O8" t="n">
         <v>62116.36</v>
@@ -12453,13 +12453,13 @@
         <v>1423500</v>
       </c>
       <c r="R8" t="n">
-        <v>1838256.14</v>
+        <v>1811080.23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E007</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -12474,7 +12474,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cliente X</t>
+          <t>Cliente Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -12487,10 +12487,10 @@
         <v>204</v>
       </c>
       <c r="H9" t="n">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
         <v>24</v>
@@ -12502,13 +12502,13 @@
         <v>10</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N9" t="n">
-        <v>326110.91</v>
+        <v>244583.18</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>62116.36</v>
       </c>
       <c r="P9" t="n">
         <v>80880.67999999999</v>
@@ -12517,13 +12517,13 @@
         <v>1423500</v>
       </c>
       <c r="R9" t="n">
-        <v>1830491.59</v>
+        <v>1811080.23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -12538,7 +12538,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cliente Y</t>
+          <t>Cliente X</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -12551,10 +12551,10 @@
         <v>204</v>
       </c>
       <c r="H10" t="n">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>24</v>
@@ -12566,13 +12566,13 @@
         <v>10</v>
       </c>
       <c r="M10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>190231.36</v>
+        <v>298935</v>
       </c>
       <c r="O10" t="n">
-        <v>62116.36</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>80880.67999999999</v>
@@ -12581,7 +12581,7 @@
         <v>1423500</v>
       </c>
       <c r="R10" t="n">
-        <v>1756728.41</v>
+        <v>1803315.68</v>
       </c>
     </row>
     <row r="11">
@@ -12615,10 +12615,10 @@
         <v>204</v>
       </c>
       <c r="H11" t="n">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>24</v>
@@ -12630,13 +12630,13 @@
         <v>10</v>
       </c>
       <c r="M11" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>190231.36</v>
+        <v>298935</v>
       </c>
       <c r="O11" t="n">
-        <v>62116.36</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>80880.67999999999</v>
@@ -12645,13 +12645,13 @@
         <v>1423500</v>
       </c>
       <c r="R11" t="n">
-        <v>1756728.41</v>
+        <v>1803315.68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>E009</t>
+          <t>E011</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -12666,7 +12666,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Cliente Z</t>
+          <t>Cliente A</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -12779,7 +12779,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E012</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -12794,7 +12794,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cliente Y</t>
+          <t>Cliente A</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -12807,7 +12807,7 @@
         <v>204</v>
       </c>
       <c r="H14" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -12825,7 +12825,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>190231.36</v>
+        <v>135879.55</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -12837,13 +12837,13 @@
         <v>1423500</v>
       </c>
       <c r="R14" t="n">
-        <v>1694612.05</v>
+        <v>1640260.23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>E012</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -12858,7 +12858,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cliente A</t>
+          <t>Cliente Y</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -12871,7 +12871,7 @@
         <v>204</v>
       </c>
       <c r="H15" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -12889,7 +12889,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>135879.55</v>
+        <v>108703.64</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -12901,7 +12901,7 @@
         <v>1423500</v>
       </c>
       <c r="R15" t="n">
-        <v>1640260.23</v>
+        <v>1613084.32</v>
       </c>
     </row>
   </sheetData>
@@ -12965,52 +12965,52 @@
         <v>62</v>
       </c>
       <c r="D2" t="n">
-        <v>6719761.16</v>
+        <v>6781531.16</v>
       </c>
       <c r="E2" t="n">
-        <v>108383.24</v>
+        <v>109379.53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P003</t>
+          <t>P002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Puesto 3</t>
+          <t>Puesto 2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>62</v>
       </c>
       <c r="D3" t="n">
-        <v>6619395.17</v>
+        <v>6589358.66</v>
       </c>
       <c r="E3" t="n">
-        <v>106764.44</v>
+        <v>106279.98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P002</t>
+          <t>P003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Puesto 2</t>
+          <t>Puesto 3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>62</v>
       </c>
       <c r="D4" t="n">
-        <v>6528942.83</v>
+        <v>6548823.17</v>
       </c>
       <c r="E4" t="n">
-        <v>105305.53</v>
+        <v>105626.18</v>
       </c>
     </row>
     <row r="5">
@@ -13028,10 +13028,10 @@
         <v>62</v>
       </c>
       <c r="D5" t="n">
-        <v>6527473.12</v>
+        <v>6475859.28</v>
       </c>
       <c r="E5" t="n">
-        <v>105281.82</v>
+        <v>104449.34</v>
       </c>
     </row>
   </sheetData>
@@ -13255,7 +13255,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="5">
@@ -13266,7 +13266,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-09-21 12:00:59</t>
+          <t>2025-09-21 17:59:42</t>
         </is>
       </c>
     </row>

--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -497,7 +497,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -512,12 +512,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E016</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -681,7 +681,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-08-03</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E017</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-08-03</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -742,12 +742,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>E016</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -773,7 +773,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -880,12 +880,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>E016</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -957,7 +957,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1018,12 +1018,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E017</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>12</v>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>12</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1110,12 +1110,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>E016</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>12</v>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E016</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>E016</t>
+          <t>E017</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1354,7 +1354,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1432,12 +1432,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>E016</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-10-12</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>E016</t>
+          <t>E017</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-10-12</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1584,10 +1584,10 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>12</v>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>12</v>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>12</v>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1708,12 +1708,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E017</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1846,12 +1846,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>E016</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1938,12 +1938,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E017</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1998,7 +1998,7 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2044,10 +2044,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>12</v>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>12</v>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>E016</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2136,10 +2136,10 @@
         </is>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>12</v>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-08-23</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2536,12 +2536,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E017</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-08-23</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2582,7 +2582,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-08-24</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-08-24</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2780,7 +2780,7 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2826,7 +2826,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2858,12 +2858,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E017</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3042,12 +3042,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>E016</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3134,7 +3134,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3180,7 +3180,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3211,7 +3211,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3226,12 +3226,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>E016</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3240,7 +3240,7 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -3303,7 +3303,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3364,12 +3364,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E017</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3516,7 +3516,7 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -3533,7 +3533,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-08-03</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-08-03</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3608,7 +3608,7 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3778,12 +3778,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E017</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3870,7 +3870,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
         <v>12</v>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
         <v>12</v>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3962,12 +3962,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E017</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
         <v>12</v>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4054,12 +4054,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E017</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4085,7 +4085,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4160,7 +4160,7 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -4177,7 +4177,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4206,7 +4206,7 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4284,12 +4284,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E017</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4315,7 +4315,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4344,7 +4344,7 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2025-10-12</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4376,7 +4376,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4390,7 +4390,7 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2025-10-12</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4422,7 +4422,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4436,10 +4436,10 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
         <v>12</v>
@@ -4453,7 +4453,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
         <v>12</v>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
         <v>12</v>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4698,12 +4698,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E017</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -4775,7 +4775,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4804,7 +4804,7 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4850,7 +4850,7 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4882,12 +4882,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E017</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4896,10 +4896,10 @@
         </is>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
         <v>12</v>
@@ -4913,7 +4913,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4945,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
         <v>12</v>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4988,10 +4988,10 @@
         </is>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
       </c>
       <c r="J99" t="n">
         <v>12</v>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5020,7 +5020,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5034,7 +5034,7 @@
         </is>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5080,7 +5080,7 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5112,7 +5112,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5158,12 +5158,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E017</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5296,12 +5296,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E017</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -5327,7 +5327,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5342,7 +5342,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5373,7 +5373,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-08-23</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5388,7 +5388,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5419,7 +5419,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-08-23</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5448,7 +5448,7 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-08-24</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5480,7 +5480,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-08-24</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5526,7 +5526,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5540,7 +5540,7 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -5557,7 +5557,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5572,7 +5572,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5664,7 +5664,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -5678,7 +5678,7 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5724,7 +5724,7 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5756,7 +5756,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -5787,7 +5787,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5848,12 +5848,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E017</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5894,7 +5894,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -5971,7 +5971,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5986,7 +5986,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6017,7 +6017,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6032,12 +6032,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E017</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -6109,7 +6109,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6138,7 +6138,7 @@
         </is>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -6155,7 +6155,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6293,7 +6293,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>E009</t>
+          <t>E008</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>E008</t>
+          <t>E009</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6368,7 +6368,7 @@
         </is>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -6385,7 +6385,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-08-03</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6400,7 +6400,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>E009</t>
+          <t>E008</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6414,7 +6414,7 @@
         </is>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-08-03</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6523,7 +6523,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6538,7 +6538,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>E007</t>
+          <t>E009</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -6552,7 +6552,7 @@
         </is>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -6569,7 +6569,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6584,7 +6584,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>E009</t>
+          <t>E008</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -6615,7 +6615,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6644,7 +6644,7 @@
         </is>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6707,7 +6707,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6722,7 +6722,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>E007</t>
+          <t>E008</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -6739,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
         <v>12</v>
@@ -6753,7 +6753,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6768,12 +6768,12 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>E009</t>
+          <t>E016</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -6785,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="n">
         <v>12</v>
@@ -6799,7 +6799,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>E008</t>
+          <t>E009</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="n">
         <v>12</v>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6860,7 +6860,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>E009</t>
+          <t>E007</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6952,12 +6952,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>E016</t>
+          <t>E007</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -6983,7 +6983,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6998,7 +6998,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>E008</t>
+          <t>E009</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7058,7 +7058,7 @@
         </is>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7104,7 +7104,7 @@
         </is>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -7121,7 +7121,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7136,12 +7136,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>E007</t>
+          <t>E016</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -7167,7 +7167,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7182,7 +7182,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>E009</t>
+          <t>E007</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -7213,7 +7213,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2025-10-12</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7242,7 +7242,7 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -7259,7 +7259,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2025-10-12</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7288,10 +7288,10 @@
         </is>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="n">
         <v>12</v>
@@ -7305,7 +7305,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7320,12 +7320,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>E016</t>
+          <t>E008</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -7337,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
         <v>12</v>
@@ -7351,7 +7351,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7366,7 +7366,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>E008</t>
+          <t>E007</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7383,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="n">
         <v>12</v>
@@ -7397,7 +7397,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7412,7 +7412,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>E007</t>
+          <t>E008</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>E008</t>
+          <t>E009</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -7489,7 +7489,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7504,12 +7504,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>E007</t>
+          <t>E016</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7550,7 +7550,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>E008</t>
+          <t>E007</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7627,7 +7627,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7642,12 +7642,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>E016</t>
+          <t>E007</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -7656,7 +7656,7 @@
         </is>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -7673,7 +7673,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7688,7 +7688,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>E008</t>
+          <t>E009</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -7702,7 +7702,7 @@
         </is>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7734,7 +7734,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>E009</t>
+          <t>E008</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -7748,10 +7748,10 @@
         </is>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="n">
         <v>12</v>
@@ -7765,7 +7765,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7780,7 +7780,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>E007</t>
+          <t>E009</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="n">
         <v>12</v>
@@ -7811,7 +7811,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7826,7 +7826,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>E009</t>
+          <t>E007</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -7840,10 +7840,10 @@
         </is>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
       </c>
       <c r="J161" t="n">
         <v>12</v>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7872,7 +7872,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>E008</t>
+          <t>E009</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -7886,7 +7886,7 @@
         </is>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -7903,7 +7903,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7918,7 +7918,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>E009</t>
+          <t>E008</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -7949,7 +7949,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7964,12 +7964,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>E008</t>
+          <t>E016</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8010,7 +8010,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>E009</t>
+          <t>E008</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8087,7 +8087,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8102,7 +8102,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>E007</t>
+          <t>E008</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8148,12 +8148,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>E016</t>
+          <t>E007</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -8179,7 +8179,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8194,7 +8194,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>E007</t>
+          <t>E009</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-08-23</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>E009</t>
+          <t>E008</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-08-23</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8286,7 +8286,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>E008</t>
+          <t>E007</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8300,7 +8300,7 @@
         </is>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-08-24</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8332,12 +8332,12 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>E016</t>
+          <t>E008</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -8363,7 +8363,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-08-24</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8392,7 +8392,7 @@
         </is>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -8409,7 +8409,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8424,7 +8424,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>E008</t>
+          <t>E007</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -8455,7 +8455,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8470,12 +8470,12 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>E007</t>
+          <t>E016</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -8484,7 +8484,7 @@
         </is>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -8501,7 +8501,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8530,7 +8530,7 @@
         </is>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8576,7 +8576,7 @@
         </is>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -8593,7 +8593,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8608,12 +8608,12 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>E016</t>
+          <t>E008</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -8639,7 +8639,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8654,7 +8654,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>E009</t>
+          <t>E007</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -8685,7 +8685,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8700,7 +8700,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>E007</t>
+          <t>E009</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -8731,7 +8731,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8746,12 +8746,12 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>E008</t>
+          <t>E016</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -8777,7 +8777,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -8869,7 +8869,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -8884,7 +8884,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>E008</t>
+          <t>E009</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -8915,7 +8915,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -8930,7 +8930,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>E007</t>
+          <t>E008</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -8944,7 +8944,7 @@
         </is>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -8961,7 +8961,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8976,7 +8976,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>E008</t>
+          <t>E009</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -8990,7 +8990,7 @@
         </is>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -9007,7 +9007,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9022,7 +9022,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>E007</t>
+          <t>E008</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -9036,7 +9036,7 @@
         </is>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -9053,7 +9053,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9099,7 +9099,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9160,12 +9160,12 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>E017</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -9191,7 +9191,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>E012</t>
+          <t>E011</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -9220,7 +9220,7 @@
         </is>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-08-03</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9252,12 +9252,12 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>E017</t>
+          <t>E012</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -9283,7 +9283,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-08-03</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9298,12 +9298,12 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>E011</t>
+          <t>E016</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -9329,7 +9329,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9344,12 +9344,12 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>E017</t>
+          <t>E012</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -9375,7 +9375,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9390,7 +9390,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>E010</t>
+          <t>E011</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -9404,7 +9404,7 @@
         </is>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9436,12 +9436,12 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>E017</t>
+          <t>E012</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -9450,7 +9450,7 @@
         </is>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -9467,7 +9467,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9482,7 +9482,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>E012</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -9513,7 +9513,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9528,7 +9528,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>E010</t>
+          <t>E012</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -9559,7 +9559,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9574,7 +9574,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>E012</t>
+          <t>E011</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -9591,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="n">
         <v>12</v>
@@ -9605,7 +9605,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" t="n">
         <v>12</v>
@@ -9651,7 +9651,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9666,7 +9666,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>E012</t>
+          <t>E011</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -9683,7 +9683,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="n">
         <v>12</v>
@@ -9697,7 +9697,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -9743,7 +9743,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -9789,7 +9789,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -9804,7 +9804,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>E010</t>
+          <t>E011</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -9835,7 +9835,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -9850,7 +9850,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>E011</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -9864,7 +9864,7 @@
         </is>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -9896,12 +9896,12 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>E012</t>
+          <t>E016</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -9910,7 +9910,7 @@
         </is>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -9927,7 +9927,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -9942,7 +9942,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>E011</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -9956,7 +9956,7 @@
         </is>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -9973,7 +9973,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -9988,12 +9988,12 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>E017</t>
+          <t>E011</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -10019,7 +10019,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10034,7 +10034,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>E010</t>
+          <t>E012</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -10048,7 +10048,7 @@
         </is>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -10065,7 +10065,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2025-10-12</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10080,7 +10080,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>E012</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -10094,7 +10094,7 @@
         </is>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2025-10-12</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10126,7 +10126,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>E010</t>
+          <t>E012</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10140,10 +10140,10 @@
         </is>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="n">
         <v>12</v>
@@ -10157,7 +10157,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10172,7 +10172,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>E011</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10189,7 +10189,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="n">
         <v>12</v>
@@ -10203,7 +10203,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10218,12 +10218,12 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>E012</t>
+          <t>E016</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -10235,7 +10235,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="n">
         <v>12</v>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10264,12 +10264,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>E017</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -10295,7 +10295,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>E012</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10387,7 +10387,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10402,12 +10402,12 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>E017</t>
+          <t>E011</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -10433,7 +10433,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10448,12 +10448,12 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>E012</t>
+          <t>E016</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -10479,7 +10479,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10508,7 +10508,7 @@
         </is>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -10525,7 +10525,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10554,7 +10554,7 @@
         </is>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -10571,7 +10571,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10586,7 +10586,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>E010</t>
+          <t>E012</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -10600,10 +10600,10 @@
         </is>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" t="n">
         <v>12</v>
@@ -10617,7 +10617,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10649,7 +10649,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" t="n">
         <v>12</v>
@@ -10663,7 +10663,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -10678,12 +10678,12 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>E012</t>
+          <t>E016</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -10692,10 +10692,10 @@
         </is>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
       </c>
       <c r="J223" t="n">
         <v>12</v>
@@ -10709,7 +10709,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -10738,7 +10738,7 @@
         </is>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -10784,7 +10784,7 @@
         </is>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -10801,7 +10801,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -10816,7 +10816,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>E011</t>
+          <t>E012</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -10847,7 +10847,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -10862,7 +10862,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>E010</t>
+          <t>E011</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -10893,7 +10893,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -10908,7 +10908,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>E012</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -10939,7 +10939,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -10954,7 +10954,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>E010</t>
+          <t>E011</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -10985,7 +10985,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11000,12 +11000,12 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>E017</t>
+          <t>E012</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -11031,7 +11031,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11077,7 +11077,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-08-23</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11092,12 +11092,12 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>E011</t>
+          <t>E016</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -11123,7 +11123,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-08-23</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11138,7 +11138,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>E012</t>
+          <t>E011</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -11152,7 +11152,7 @@
         </is>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -11169,7 +11169,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-08-24</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11184,7 +11184,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>E010</t>
+          <t>E012</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -11198,7 +11198,7 @@
         </is>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -11215,7 +11215,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-08-24</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11230,7 +11230,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>E011</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -11244,7 +11244,7 @@
         </is>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -11261,7 +11261,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11276,7 +11276,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>E010</t>
+          <t>E011</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -11307,7 +11307,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11322,7 +11322,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>E012</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -11336,7 +11336,7 @@
         </is>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>E011</t>
+          <t>E012</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -11382,7 +11382,7 @@
         </is>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11414,12 +11414,12 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>E017</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -11428,7 +11428,7 @@
         </is>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -11445,7 +11445,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>E011</t>
+          <t>E012</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -11491,7 +11491,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11506,12 +11506,12 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>E017</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -11537,7 +11537,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11552,7 +11552,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>E011</t>
+          <t>E012</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -11583,7 +11583,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -11598,7 +11598,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>E012</t>
+          <t>E011</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -11629,7 +11629,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -11644,7 +11644,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>E011</t>
+          <t>E012</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -11675,7 +11675,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -11721,7 +11721,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -11767,7 +11767,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -11782,12 +11782,12 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>E012</t>
+          <t>E016</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>FIJO</t>
+          <t>COMODIN</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -11813,7 +11813,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -11828,7 +11828,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>E010</t>
+          <t>E012</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -11842,7 +11842,7 @@
         </is>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -11859,7 +11859,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -11874,7 +11874,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>E012</t>
+          <t>E011</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -11888,7 +11888,7 @@
         </is>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -11905,7 +11905,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -11951,7 +11951,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -11997,7 +11997,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12043,7 +12043,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-08-02</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12072,7 +12072,7 @@
         </is>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -12089,7 +12089,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-08-03</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12118,7 +12118,7 @@
         </is>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -12135,7 +12135,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-08-03</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12150,7 +12150,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E015</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -12164,7 +12164,7 @@
         </is>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -12181,7 +12181,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12196,7 +12196,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>E014</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -12227,7 +12227,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -12256,7 +12256,7 @@
         </is>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -12273,7 +12273,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -12302,7 +12302,7 @@
         </is>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -12319,7 +12319,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -12348,7 +12348,7 @@
         </is>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -12365,7 +12365,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -12411,7 +12411,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -12426,7 +12426,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E015</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -12443,7 +12443,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J261" t="n">
         <v>12</v>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -12489,7 +12489,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J262" t="n">
         <v>12</v>
@@ -12503,7 +12503,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -12518,12 +12518,12 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>E017</t>
+          <t>E014</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -12535,7 +12535,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J263" t="n">
         <v>12</v>
@@ -12549,7 +12549,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -12564,7 +12564,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>E015</t>
+          <t>E013</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -12595,7 +12595,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -12610,7 +12610,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E015</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -12641,7 +12641,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -12687,7 +12687,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -12702,7 +12702,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>E015</t>
+          <t>E014</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -12716,7 +12716,7 @@
         </is>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -12733,7 +12733,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -12748,7 +12748,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E015</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -12762,7 +12762,7 @@
         </is>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -12779,7 +12779,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -12808,7 +12808,7 @@
         </is>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -12825,7 +12825,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -12840,7 +12840,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E015</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -12871,7 +12871,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -12886,7 +12886,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>E015</t>
+          <t>E014</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -12900,7 +12900,7 @@
         </is>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -12917,7 +12917,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2025-10-12</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -12932,7 +12932,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>E015</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -12963,7 +12963,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2025-10-12</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -12978,7 +12978,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>E015</t>
+          <t>E013</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -12992,10 +12992,10 @@
         </is>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J273" t="n">
         <v>12</v>
@@ -13009,7 +13009,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13024,7 +13024,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E015</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -13041,7 +13041,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J274" t="n">
         <v>12</v>
@@ -13055,7 +13055,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13070,7 +13070,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>E014</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -13087,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J275" t="n">
         <v>12</v>
@@ -13101,7 +13101,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13147,7 +13147,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13193,7 +13193,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13239,7 +13239,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13285,7 +13285,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13300,7 +13300,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>E015</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -13331,7 +13331,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13346,7 +13346,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>E015</t>
+          <t>E013</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -13360,7 +13360,7 @@
         </is>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -13377,7 +13377,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13406,7 +13406,7 @@
         </is>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -13423,7 +13423,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13452,10 +13452,10 @@
         </is>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J283" t="n">
         <v>12</v>
@@ -13469,7 +13469,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -13484,12 +13484,12 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>E017</t>
+          <t>E014</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -13501,7 +13501,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J284" t="n">
         <v>12</v>
@@ -13515,7 +13515,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -13530,7 +13530,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E015</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -13544,10 +13544,10 @@
         </is>
       </c>
       <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="n">
         <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0</v>
       </c>
       <c r="J285" t="n">
         <v>12</v>
@@ -13561,7 +13561,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>E015</t>
+          <t>E013</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -13590,7 +13590,7 @@
         </is>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -13607,7 +13607,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -13622,7 +13622,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E015</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -13636,7 +13636,7 @@
         </is>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -13653,7 +13653,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -13668,12 +13668,12 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>E017</t>
+          <t>E013</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -13699,7 +13699,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -13745,7 +13745,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -13791,7 +13791,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -13806,7 +13806,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>E015</t>
+          <t>E013</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -13837,7 +13837,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -13852,7 +13852,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>E014</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -13883,7 +13883,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -13898,7 +13898,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E015</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -13929,7 +13929,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-08-23</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -13975,7 +13975,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-08-23</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -13990,12 +13990,12 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>E017</t>
+          <t>E015</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -14004,7 +14004,7 @@
         </is>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -14021,7 +14021,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-08-24</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14050,7 +14050,7 @@
         </is>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -14067,7 +14067,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-08-24</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14082,7 +14082,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>E015</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -14113,7 +14113,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14128,12 +14128,12 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>E017</t>
+          <t>E014</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -14159,7 +14159,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14174,7 +14174,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E015</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -14188,7 +14188,7 @@
         </is>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -14205,7 +14205,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>E015</t>
+          <t>E014</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -14234,7 +14234,7 @@
         </is>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -14251,7 +14251,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14280,7 +14280,7 @@
         </is>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -14297,7 +14297,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14343,7 +14343,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14389,7 +14389,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14435,7 +14435,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14450,7 +14450,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>E013</t>
+          <t>E014</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -14481,7 +14481,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -14496,7 +14496,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E013</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -14527,7 +14527,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -14573,7 +14573,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -14619,7 +14619,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -14634,12 +14634,12 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>E017</t>
+          <t>E015</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -14648,7 +14648,7 @@
         </is>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -14694,7 +14694,7 @@
         </is>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -14711,7 +14711,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -14726,12 +14726,12 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>E017</t>
+          <t>E015</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>COMODIN</t>
+          <t>FIJO</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -14740,7 +14740,7 @@
         </is>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -14868,7 +14868,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>E004</t>
+          <t>E015</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -14883,7 +14883,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cliente Y</t>
+          <t>Cliente B</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -14893,49 +14893,49 @@
         <v>6470.45</v>
       </c>
       <c r="G2" t="n">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H2" t="n">
         <v>194.86</v>
       </c>
       <c r="I2" t="n">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="J2" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K2" t="n">
         <v>48</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>141.15</v>
+        <v>129.15</v>
       </c>
       <c r="N2" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="O2" t="n">
-        <v>346492.84</v>
+        <v>326110.91</v>
       </c>
       <c r="P2" t="n">
-        <v>310581.82</v>
+        <v>341640</v>
       </c>
       <c r="Q2" t="n">
-        <v>1141630.82</v>
+        <v>1044574.01</v>
       </c>
       <c r="R2" t="n">
         <v>1423500</v>
       </c>
       <c r="S2" t="n">
-        <v>3222205.48</v>
+        <v>3135824.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>E015</t>
+          <t>E009</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -14950,7 +14950,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cliente B</t>
+          <t>Cliente Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -14966,28 +14966,28 @@
         <v>194.86</v>
       </c>
       <c r="I3" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="K3" t="n">
         <v>48</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>33.15</v>
       </c>
       <c r="N3" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="O3" t="n">
-        <v>203819.32</v>
+        <v>183437.39</v>
       </c>
       <c r="P3" t="n">
-        <v>279523.64</v>
+        <v>341640</v>
       </c>
       <c r="Q3" t="n">
         <v>268119.46</v>
@@ -14996,13 +14996,13 @@
         <v>1423500</v>
       </c>
       <c r="S3" t="n">
-        <v>2174962.41</v>
+        <v>2216696.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>E009</t>
+          <t>E011</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -15017,7 +15017,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cliente Z</t>
+          <t>Cliente A</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -15033,13 +15033,13 @@
         <v>194.86</v>
       </c>
       <c r="I4" t="n">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="K4" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
@@ -15051,7 +15051,7 @@
         <v>54</v>
       </c>
       <c r="O4" t="n">
-        <v>183437.39</v>
+        <v>244583.18</v>
       </c>
       <c r="P4" t="n">
         <v>279523.64</v>
@@ -15063,13 +15063,13 @@
         <v>1423500</v>
       </c>
       <c r="S4" t="n">
-        <v>2154580.48</v>
+        <v>2215726.28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>E014</t>
+          <t>E017</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -15084,7 +15084,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cliente B</t>
+          <t>Varios</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -15100,13 +15100,13 @@
         <v>194.86</v>
       </c>
       <c r="I5" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J5" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K5" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L5" t="n">
         <v>3</v>
@@ -15115,13 +15115,13 @@
         <v>33.15</v>
       </c>
       <c r="N5" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="O5" t="n">
-        <v>203819.32</v>
+        <v>183437.39</v>
       </c>
       <c r="P5" t="n">
-        <v>217407.27</v>
+        <v>279523.64</v>
       </c>
       <c r="Q5" t="n">
         <v>268119.46</v>
@@ -15130,13 +15130,13 @@
         <v>1423500</v>
       </c>
       <c r="S5" t="n">
-        <v>2112846.05</v>
+        <v>2154580.48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>E012</t>
+          <t>E010</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -15161,49 +15161,49 @@
         <v>6470.45</v>
       </c>
       <c r="G6" t="n">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H6" t="n">
         <v>194.86</v>
       </c>
       <c r="I6" t="n">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K6" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>21.15</v>
+        <v>33.15</v>
       </c>
       <c r="N6" t="n">
         <v>36</v>
       </c>
       <c r="O6" t="n">
-        <v>244583.18</v>
+        <v>224201.25</v>
       </c>
       <c r="P6" t="n">
         <v>186349.09</v>
       </c>
       <c r="Q6" t="n">
-        <v>171062.64</v>
+        <v>268119.46</v>
       </c>
       <c r="R6" t="n">
         <v>1423500</v>
       </c>
       <c r="S6" t="n">
-        <v>2025494.91</v>
+        <v>2102169.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>E016</t>
+          <t>E014</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -15218,7 +15218,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Varios</t>
+          <t>Cliente B</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -15237,25 +15237,25 @@
         <v>72</v>
       </c>
       <c r="J7" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K7" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>21.15</v>
       </c>
       <c r="N7" t="n">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="O7" t="n">
         <v>163055.45</v>
       </c>
       <c r="P7" t="n">
-        <v>217407.27</v>
+        <v>341640</v>
       </c>
       <c r="Q7" t="n">
         <v>171062.64</v>
@@ -15264,13 +15264,13 @@
         <v>1423500</v>
       </c>
       <c r="S7" t="n">
-        <v>1975025.37</v>
+        <v>2099258.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>E002</t>
+          <t>E004</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -15285,7 +15285,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cliente X</t>
+          <t>Cliente Y</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -15301,28 +15301,28 @@
         <v>194.86</v>
       </c>
       <c r="I8" t="n">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="J8" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K8" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
         <v>9.15</v>
       </c>
       <c r="N8" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="O8" t="n">
-        <v>203819.32</v>
+        <v>264965.11</v>
       </c>
       <c r="P8" t="n">
-        <v>186349.09</v>
+        <v>310581.82</v>
       </c>
       <c r="Q8" t="n">
         <v>74005.82000000001</v>
@@ -15331,13 +15331,13 @@
         <v>1423500</v>
       </c>
       <c r="S8" t="n">
-        <v>1887674.23</v>
+        <v>2073052.76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>E010</t>
+          <t>E008</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cliente A</t>
+          <t>Cliente Z</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -15362,49 +15362,49 @@
         <v>6470.45</v>
       </c>
       <c r="G9" t="n">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="H9" t="n">
         <v>194.86</v>
       </c>
       <c r="I9" t="n">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K9" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>9.15</v>
+        <v>21.15</v>
       </c>
       <c r="N9" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="O9" t="n">
-        <v>203819.32</v>
+        <v>163055.45</v>
       </c>
       <c r="P9" t="n">
-        <v>155290.91</v>
+        <v>279523.64</v>
       </c>
       <c r="Q9" t="n">
-        <v>74005.82000000001</v>
+        <v>171062.64</v>
       </c>
       <c r="R9" t="n">
         <v>1423500</v>
       </c>
       <c r="S9" t="n">
-        <v>1856616.05</v>
+        <v>2037141.73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>E007</t>
+          <t>E001</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -15419,7 +15419,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cliente Z</t>
+          <t>Cliente X</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -15441,22 +15441,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>21.15</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="O10" t="n">
         <v>224201.25</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>217407.27</v>
       </c>
       <c r="Q10" t="n">
         <v>171062.64</v>
@@ -15465,13 +15465,13 @@
         <v>1423500</v>
       </c>
       <c r="S10" t="n">
-        <v>1818763.89</v>
+        <v>2036171.16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>E006</t>
+          <t>E005</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -15508,22 +15508,22 @@
         <v>6</v>
       </c>
       <c r="K11" t="n">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
         <v>9.15</v>
       </c>
       <c r="N11" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="O11" t="n">
         <v>163055.45</v>
       </c>
       <c r="P11" t="n">
-        <v>155290.91</v>
+        <v>310581.82</v>
       </c>
       <c r="Q11" t="n">
         <v>74005.82000000001</v>
@@ -15532,13 +15532,13 @@
         <v>1423500</v>
       </c>
       <c r="S11" t="n">
-        <v>1815852.19</v>
+        <v>1971143.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>E001</t>
+          <t>E002</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -15569,28 +15569,28 @@
         <v>194.86</v>
       </c>
       <c r="I12" t="n">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J12" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K12" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>9.15</v>
       </c>
       <c r="N12" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="O12" t="n">
-        <v>224201.25</v>
+        <v>244583.18</v>
       </c>
       <c r="P12" t="n">
-        <v>62116.36</v>
+        <v>217407.27</v>
       </c>
       <c r="Q12" t="n">
         <v>74005.82000000001</v>
@@ -15599,13 +15599,13 @@
         <v>1423500</v>
       </c>
       <c r="S12" t="n">
-        <v>1783823.44</v>
+        <v>1959496.28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>E005</t>
+          <t>E007</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -15620,7 +15620,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Cliente Y</t>
+          <t>Cliente Z</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -15636,28 +15636,28 @@
         <v>194.86</v>
       </c>
       <c r="I13" t="n">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="J13" t="n">
         <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>9.15</v>
       </c>
       <c r="N13" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O13" t="n">
-        <v>122291.59</v>
+        <v>224201.25</v>
       </c>
       <c r="P13" t="n">
-        <v>155290.91</v>
+        <v>186349.09</v>
       </c>
       <c r="Q13" t="n">
         <v>74005.82000000001</v>
@@ -15666,13 +15666,13 @@
         <v>1423500</v>
       </c>
       <c r="S13" t="n">
-        <v>1775088.32</v>
+        <v>1908056.16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>E008</t>
+          <t>E016</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -15687,7 +15687,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cliente Z</t>
+          <t>Varios</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -15703,28 +15703,28 @@
         <v>194.86</v>
       </c>
       <c r="I14" t="n">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="K14" t="n">
         <v>24</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
         <v>9.15</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="O14" t="n">
-        <v>183437.39</v>
+        <v>142673.52</v>
       </c>
       <c r="P14" t="n">
-        <v>31058.18</v>
+        <v>217407.27</v>
       </c>
       <c r="Q14" t="n">
         <v>74005.82000000001</v>
@@ -15733,13 +15733,13 @@
         <v>1423500</v>
       </c>
       <c r="S14" t="n">
-        <v>1712001.39</v>
+        <v>1857586.62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>E011</t>
+          <t>E003</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -15754,7 +15754,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cliente A</t>
+          <t>Cliente X</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -15770,28 +15770,28 @@
         <v>194.86</v>
       </c>
       <c r="I15" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J15" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K15" t="n">
         <v>24</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>9.15</v>
       </c>
       <c r="N15" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="O15" t="n">
-        <v>122291.59</v>
+        <v>101909.66</v>
       </c>
       <c r="P15" t="n">
-        <v>62116.36</v>
+        <v>248465.45</v>
       </c>
       <c r="Q15" t="n">
         <v>74005.82000000001</v>
@@ -15800,13 +15800,13 @@
         <v>1423500</v>
       </c>
       <c r="S15" t="n">
-        <v>1681913.78</v>
+        <v>1847880.94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>E003</t>
+          <t>E012</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -15821,7 +15821,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cliente X</t>
+          <t>Cliente A</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -15831,7 +15831,7 @@
         <v>6470.45</v>
       </c>
       <c r="G16" t="n">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="H16" t="n">
         <v>194.86</v>
@@ -15840,34 +15840,34 @@
         <v>36</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>21.15</v>
+        <v>9.15</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="O16" t="n">
         <v>81527.73</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>248465.45</v>
       </c>
       <c r="Q16" t="n">
-        <v>171062.64</v>
+        <v>74005.82000000001</v>
       </c>
       <c r="R16" t="n">
         <v>1423500</v>
       </c>
       <c r="S16" t="n">
-        <v>1676090.37</v>
+        <v>1827499.01</v>
       </c>
     </row>
     <row r="17">
@@ -15907,25 +15907,25 @@
         <v>63</v>
       </c>
       <c r="J17" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K17" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>9.15</v>
       </c>
       <c r="N17" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="O17" t="n">
         <v>142673.52</v>
       </c>
       <c r="P17" t="n">
-        <v>31058.18</v>
+        <v>186349.09</v>
       </c>
       <c r="Q17" t="n">
         <v>74005.82000000001</v>
@@ -15934,13 +15934,13 @@
         <v>1423500</v>
       </c>
       <c r="S17" t="n">
-        <v>1671237.53</v>
+        <v>1826528.44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>E017</t>
+          <t>E006</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -15955,7 +15955,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Varios</t>
+          <t>Cliente Y</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -15971,10 +15971,10 @@
         <v>194.86</v>
       </c>
       <c r="I18" t="n">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K18" t="n">
         <v>18</v>
@@ -15986,13 +15986,13 @@
         <v>9.15</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O18" t="n">
-        <v>142673.52</v>
+        <v>81527.73</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>62116.36</v>
       </c>
       <c r="Q18" t="n">
         <v>74005.82000000001</v>
@@ -16001,7 +16001,7 @@
         <v>1423500</v>
       </c>
       <c r="S18" t="n">
-        <v>1640179.35</v>
+        <v>1641149.91</v>
       </c>
     </row>
   </sheetData>
@@ -16053,106 +16053,106 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P002</t>
+          <t>P005</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Puesto 2</t>
+          <t>Puesto 5</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>62</v>
       </c>
       <c r="D2" t="n">
-        <v>6813145.99</v>
+        <v>7061611.45</v>
       </c>
       <c r="E2" t="n">
-        <v>109889.45</v>
+        <v>113896.96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P005</t>
+          <t>P003</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Puesto 5</t>
+          <t>Puesto 3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>62</v>
       </c>
       <c r="D3" t="n">
-        <v>6634413.96</v>
+        <v>7036053.15</v>
       </c>
       <c r="E3" t="n">
-        <v>107006.68</v>
+        <v>113484.73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P003</t>
+          <t>P001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Puesto 3</t>
+          <t>Puesto 1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>62</v>
       </c>
       <c r="D4" t="n">
-        <v>6563134.82</v>
+        <v>6969279.77</v>
       </c>
       <c r="E4" t="n">
-        <v>105857.01</v>
+        <v>112407.74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P004</t>
+          <t>P002</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Puesto 4</t>
+          <t>Puesto 2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>62</v>
       </c>
       <c r="D5" t="n">
-        <v>6528836.12</v>
+        <v>6932734.47</v>
       </c>
       <c r="E5" t="n">
-        <v>105303.81</v>
+        <v>111818.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>P001</t>
+          <t>P004</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Puesto 1</t>
+          <t>Puesto 4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>62</v>
       </c>
       <c r="D6" t="n">
-        <v>6444824.36</v>
+        <v>6910283.69</v>
       </c>
       <c r="E6" t="n">
-        <v>103948.78</v>
+        <v>111456.19</v>
       </c>
     </row>
   </sheetData>
@@ -16233,7 +16233,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>450</v>
+        <v>822</v>
       </c>
     </row>
     <row r="7">
@@ -16263,7 +16263,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2329363.64</v>
+        <v>4254970.91</v>
       </c>
     </row>
     <row r="10">
@@ -16293,7 +16293,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>32984355.26</v>
+        <v>34909962.53</v>
       </c>
     </row>
     <row r="13">
@@ -16303,7 +16303,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6596871.05</v>
+        <v>6981992.51</v>
       </c>
     </row>
     <row r="14">
@@ -16313,7 +16313,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -16376,7 +16376,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -16387,7 +16387,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-09-22 09:36:01</t>
+          <t>2025-09-23 10:20:51</t>
         </is>
       </c>
     </row>
@@ -16408,7 +16408,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
